--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_14_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_14_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52059.13450457393</v>
+        <v>44415.07265054373</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33937088.13219457</v>
+        <v>33937088.13219456</v>
       </c>
     </row>
     <row r="8">
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>119.0839105424628</v>
+        <v>119.0839105424615</v>
       </c>
       <c r="G8" t="n">
-        <v>119.0839105424628</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>74.18125311796769</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>119.0839105424615</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>104.8891084058012</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>119.0839105424628</v>
+        <v>30.70785528783243</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>119.0839105424615</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>119.0839105424615</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>82.36770928169203</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1262,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>59.05530966656962</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>119.0839105424615</v>
       </c>
       <c r="U9" t="n">
-        <v>119.0839105424628</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>119.0839105424628</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>119.0839105424628</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>22.33910840580126</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>119.0839105424628</v>
+        <v>91.32747982963608</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>119.0839105424615</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>119.0839105424615</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616394</v>
+        <v>13.56162857616402</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>119.0839105424615</v>
       </c>
       <c r="V10" t="n">
-        <v>91.32747982963727</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>119.0839105424628</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>119.0839105424628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>24.22305971739522</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T11" t="n">
-        <v>105.6777097596733</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1545,7 +1545,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>6.122931086759879</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
@@ -1587,7 +1587,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>27.35987084644476</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>338.4808168885314</v>
       </c>
       <c r="G14" t="n">
-        <v>337.5821399897156</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
@@ -1830,10 +1830,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>74.94644836836076</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.30026393667195</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1858,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>321.2680710507438</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>156.7012890994284</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2010,10 +2010,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>85.14888072091732</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>17.75123914303028</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>156.047785483419</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>191.4491362266141</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2241,25 +2241,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>63.62546569681869</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>77.20378078338567</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2326,16 +2326,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>373.6379449502016</v>
       </c>
       <c r="G23" t="n">
-        <v>304.6279919443818</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>63.62546569681869</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>86.38976318987905</v>
       </c>
       <c r="T25" t="n">
         <v>239.8247518556274</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>48.50583343253271</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>395.5076644073176</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>93.16613052254546</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2715,10 +2715,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>49.34995949258575</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2727,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.09228531058624</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>18.98847872300996</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>361.9987888703319</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,22 +2955,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>135.727208415133</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>23.41626697718771</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
@@ -3012,10 +3012,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>155.7114808343877</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>170.8454278428336</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3189,22 +3189,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>67.81305593795511</v>
+        <v>62.79604691330096</v>
       </c>
       <c r="G34" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>321.9370827829815</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3280,7 +3280,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>116.6395830120773</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3426,19 +3426,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>62.53336865832363</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>99.8862045070846</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>127.3873593352179</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>65.4570982192799</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3666,16 +3666,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>86.38976318987859</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
@@ -3723,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>203.3229056032134</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3754,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>170.8454278428334</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>109.5540470185014</v>
       </c>
     </row>
     <row r="42">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.81233806278217</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258614</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -3963,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>156.7012890994281</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>109.5540470185018</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>154.9460495062423</v>
       </c>
       <c r="E46" t="n">
-        <v>124.9643551080473</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>250.1002694948371</v>
+        <v>129.8134911691157</v>
       </c>
       <c r="C8" t="n">
-        <v>250.1002694948371</v>
+        <v>129.8134911691157</v>
       </c>
       <c r="D8" t="n">
-        <v>250.1002694948371</v>
+        <v>129.8134911691157</v>
       </c>
       <c r="E8" t="n">
-        <v>250.1002694948371</v>
+        <v>129.8134911691157</v>
       </c>
       <c r="F8" t="n">
-        <v>129.813491169117</v>
+        <v>9.526712843396924</v>
       </c>
       <c r="G8" t="n">
-        <v>9.526712843397025</v>
+        <v>9.526712843396924</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843397025</v>
+        <v>9.526712843396924</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585613</v>
+        <v>23.57954741585577</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306558122</v>
+        <v>55.41632306558055</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318086</v>
+        <v>103.1313969318075</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183121</v>
+        <v>162.3261653183103</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590967</v>
+        <v>228.1917507590942</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326628</v>
+        <v>295.1231102326595</v>
       </c>
       <c r="O8" t="n">
-        <v>358.324495033648</v>
+        <v>358.3244950336441</v>
       </c>
       <c r="P8" t="n">
-        <v>412.2654147455734</v>
+        <v>412.265414745569</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990245083</v>
+        <v>452.7727990245035</v>
       </c>
       <c r="R8" t="n">
-        <v>476.3356421698512</v>
+        <v>476.3356421698462</v>
       </c>
       <c r="S8" t="n">
-        <v>476.3356421698512</v>
+        <v>401.4050834648283</v>
       </c>
       <c r="T8" t="n">
-        <v>476.3356421698512</v>
+        <v>281.1183051391096</v>
       </c>
       <c r="U8" t="n">
-        <v>476.3356421698512</v>
+        <v>281.1183051391096</v>
       </c>
       <c r="V8" t="n">
-        <v>370.3870478205571</v>
+        <v>281.1183051391096</v>
       </c>
       <c r="W8" t="n">
-        <v>370.3870478205571</v>
+        <v>281.1183051391096</v>
       </c>
       <c r="X8" t="n">
-        <v>250.1002694948371</v>
+        <v>250.1002694948344</v>
       </c>
       <c r="Y8" t="n">
-        <v>250.1002694948371</v>
+        <v>129.8134911691157</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.9105512272354</v>
+        <v>176.1102575723788</v>
       </c>
       <c r="C9" t="n">
-        <v>92.9105512272354</v>
+        <v>176.1102575723788</v>
       </c>
       <c r="D9" t="n">
-        <v>92.9105512272354</v>
+        <v>176.1102575723788</v>
       </c>
       <c r="E9" t="n">
-        <v>92.9105512272354</v>
+        <v>176.1102575723788</v>
       </c>
       <c r="F9" t="n">
-        <v>9.526712843397025</v>
+        <v>92.72641918854039</v>
       </c>
       <c r="G9" t="n">
-        <v>9.526712843397025</v>
+        <v>9.526712843396924</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843397025</v>
+        <v>9.526712843396924</v>
       </c>
       <c r="I9" t="n">
-        <v>16.43678475114709</v>
+        <v>42.50045791160451</v>
       </c>
       <c r="J9" t="n">
-        <v>67.70899752368045</v>
+        <v>61.46222338483285</v>
       </c>
       <c r="K9" t="n">
-        <v>100.1176749029969</v>
+        <v>100.1176749029958</v>
       </c>
       <c r="L9" t="n">
-        <v>143.6951411186869</v>
+        <v>143.6951411186854</v>
       </c>
       <c r="M9" t="n">
-        <v>194.5479887761036</v>
+        <v>194.5479887761016</v>
       </c>
       <c r="N9" t="n">
-        <v>246.7467599936413</v>
+        <v>246.7467599936387</v>
       </c>
       <c r="O9" t="n">
-        <v>294.4984377999748</v>
+        <v>294.4984377999717</v>
       </c>
       <c r="P9" t="n">
-        <v>332.8233691018374</v>
+        <v>332.823369101834</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.442570732813</v>
+        <v>358.4425707328093</v>
       </c>
       <c r="R9" t="n">
-        <v>476.3356421698512</v>
+        <v>476.3356421698462</v>
       </c>
       <c r="S9" t="n">
-        <v>476.3356421698512</v>
+        <v>416.6838142238162</v>
       </c>
       <c r="T9" t="n">
-        <v>476.3356421698512</v>
+        <v>296.3970358980975</v>
       </c>
       <c r="U9" t="n">
-        <v>356.0488638441312</v>
+        <v>296.3970358980975</v>
       </c>
       <c r="V9" t="n">
-        <v>235.7620855184112</v>
+        <v>296.3970358980975</v>
       </c>
       <c r="W9" t="n">
-        <v>115.4753071926912</v>
+        <v>296.3970358980975</v>
       </c>
       <c r="X9" t="n">
-        <v>92.9105512272354</v>
+        <v>296.3970358980975</v>
       </c>
       <c r="Y9" t="n">
-        <v>92.9105512272354</v>
+        <v>296.3970358980975</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.526712843397025</v>
+        <v>250.1002694948344</v>
       </c>
       <c r="C10" t="n">
-        <v>9.526712843397025</v>
+        <v>250.1002694948344</v>
       </c>
       <c r="D10" t="n">
-        <v>9.526712843397025</v>
+        <v>129.8134911691157</v>
       </c>
       <c r="E10" t="n">
-        <v>9.526712843397025</v>
+        <v>129.8134911691157</v>
       </c>
       <c r="F10" t="n">
-        <v>9.526712843397025</v>
+        <v>129.8134911691157</v>
       </c>
       <c r="G10" t="n">
-        <v>9.526712843397025</v>
+        <v>129.8134911691157</v>
       </c>
       <c r="H10" t="n">
-        <v>9.526712843397025</v>
+        <v>9.526712843396924</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843397025</v>
+        <v>9.526712843396924</v>
       </c>
       <c r="J10" t="n">
-        <v>108.0024003011153</v>
+        <v>21.42271513642521</v>
       </c>
       <c r="K10" t="n">
-        <v>127.5511863760675</v>
+        <v>40.97150121137718</v>
       </c>
       <c r="L10" t="n">
-        <v>152.5669021405251</v>
+        <v>65.98721697583451</v>
       </c>
       <c r="M10" t="n">
-        <v>194.4507695664451</v>
+        <v>92.36278178728968</v>
       </c>
       <c r="N10" t="n">
-        <v>220.1991823989702</v>
+        <v>122.6564278587354</v>
       </c>
       <c r="O10" t="n">
-        <v>338.0922538360084</v>
+        <v>240.5494992957723</v>
       </c>
       <c r="P10" t="n">
-        <v>358.442570732813</v>
+        <v>358.4425707328093</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.3356421698512</v>
+        <v>476.3356421698462</v>
       </c>
       <c r="R10" t="n">
-        <v>462.6370274464533</v>
+        <v>462.6370274464481</v>
       </c>
       <c r="S10" t="n">
-        <v>462.6370274464533</v>
+        <v>462.6370274464481</v>
       </c>
       <c r="T10" t="n">
-        <v>462.6370274464533</v>
+        <v>462.6370274464481</v>
       </c>
       <c r="U10" t="n">
-        <v>462.6370274464533</v>
+        <v>342.3502491207294</v>
       </c>
       <c r="V10" t="n">
-        <v>370.3870478205571</v>
+        <v>342.3502491207294</v>
       </c>
       <c r="W10" t="n">
-        <v>370.3870478205571</v>
+        <v>342.3502491207294</v>
       </c>
       <c r="X10" t="n">
-        <v>250.1002694948371</v>
+        <v>342.3502491207294</v>
       </c>
       <c r="Y10" t="n">
-        <v>129.813491169117</v>
+        <v>342.3502491207294</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>755.070575821621</v>
+        <v>1337.186882365124</v>
       </c>
       <c r="C11" t="n">
-        <v>316.9281030050443</v>
+        <v>899.0444095485477</v>
       </c>
       <c r="D11" t="n">
-        <v>316.9281030050443</v>
+        <v>899.0444095485477</v>
       </c>
       <c r="E11" t="n">
-        <v>316.9281030050443</v>
+        <v>874.5766724602697</v>
       </c>
       <c r="F11" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694775</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="H11" t="n">
         <v>47.20655154895471</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001349</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435801</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228016</v>
+        <v>512.324927422801</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867021</v>
+        <v>805.4408022867016</v>
       </c>
       <c r="M11" t="n">
         <v>1131.588690455489</v>
@@ -5056,7 +5056,7 @@
         <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.969506973258</v>
       </c>
       <c r="P11" t="n">
         <v>2043.069798152527</v>
@@ -5065,28 +5065,28 @@
         <v>2243.650993163595</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447735</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662532</v>
       </c>
       <c r="T11" t="n">
-        <v>2253.582416074328</v>
+        <v>2108.089956131645</v>
       </c>
       <c r="U11" t="n">
-        <v>1994.511724595842</v>
+        <v>2108.089956131645</v>
       </c>
       <c r="V11" t="n">
-        <v>1994.511724595842</v>
+        <v>1745.473006065471</v>
       </c>
       <c r="W11" t="n">
-        <v>1589.656270006875</v>
+        <v>1745.473006065471</v>
       </c>
       <c r="X11" t="n">
-        <v>1589.656270006875</v>
+        <v>1745.473006065471</v>
       </c>
       <c r="Y11" t="n">
-        <v>1181.370146306529</v>
+        <v>1337.186882365124</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>81.42328772043081</v>
       </c>
       <c r="J12" t="n">
-        <v>175.3166270668988</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210689</v>
+        <v>335.795299121068</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960912</v>
+        <v>551.5786779960903</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987884</v>
+        <v>803.3877032987875</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q12" t="n">
         <v>1614.947661807679</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>903.0372729147102</v>
+        <v>730.9745012407178</v>
       </c>
       <c r="C13" t="n">
-        <v>730.4755613979352</v>
+        <v>558.4127897239428</v>
       </c>
       <c r="D13" t="n">
-        <v>564.5975685994579</v>
+        <v>558.4127897239428</v>
       </c>
       <c r="E13" t="n">
-        <v>394.8395648501951</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F13" t="n">
-        <v>218.1325108119513</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G13" t="n">
-        <v>53.39133042446974</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="H13" t="n">
         <v>47.20655154895471</v>
@@ -5199,52 +5199,52 @@
         <v>47.20655154895471</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158276</v>
       </c>
       <c r="K13" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545213</v>
       </c>
       <c r="L13" t="n">
-        <v>326.7831174369939</v>
+        <v>688.1212571728192</v>
       </c>
       <c r="M13" t="n">
-        <v>910.9641928553084</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N13" t="n">
-        <v>1480.721907816843</v>
+        <v>1399.801244395023</v>
       </c>
       <c r="O13" t="n">
-        <v>2018.157038390386</v>
+        <v>1657.620488527955</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.926094568069</v>
+        <v>2105.89643867598</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770968</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447735</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.90103895197</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351142</v>
+        <v>1973.653814855377</v>
       </c>
       <c r="U13" t="n">
-        <v>1839.693721399885</v>
+        <v>1695.26718290412</v>
       </c>
       <c r="V13" t="n">
-        <v>1839.693721399885</v>
+        <v>1667.630949725893</v>
       </c>
       <c r="W13" t="n">
-        <v>1567.667316986177</v>
+        <v>1395.604545312184</v>
       </c>
       <c r="X13" t="n">
-        <v>1322.275562319589</v>
+        <v>1150.212790645597</v>
       </c>
       <c r="Y13" t="n">
-        <v>1094.855891633697</v>
+        <v>922.7931199597049</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1955.472122858769</v>
+        <v>1058.330609364488</v>
       </c>
       <c r="C14" t="n">
-        <v>1955.472122858769</v>
+        <v>1058.330609364488</v>
       </c>
       <c r="D14" t="n">
-        <v>1519.562338033214</v>
+        <v>1058.330609364488</v>
       </c>
       <c r="E14" t="n">
-        <v>1085.787593191509</v>
+        <v>1058.330609364488</v>
       </c>
       <c r="F14" t="n">
-        <v>657.9201636007167</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G14" t="n">
         <v>316.9281030050443</v>
@@ -5278,13 +5278,13 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M14" t="n">
         <v>1131.588690455489</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447736</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447736</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447736</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447736</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="W14" t="n">
-        <v>1955.472122858769</v>
+        <v>1484.630179849396</v>
       </c>
       <c r="X14" t="n">
-        <v>1955.472122858769</v>
+        <v>1484.630179849396</v>
       </c>
       <c r="Y14" t="n">
-        <v>1955.472122858769</v>
+        <v>1484.630179849396</v>
       </c>
     </row>
     <row r="15">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.291841223631</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="C16" t="n">
         <v>919.7301297068562</v>
@@ -5439,22 +5439,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>358.0754347909399</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>481.9462364092378</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>1066.127311827552</v>
+        <v>1690.512214359095</v>
       </c>
       <c r="N16" t="n">
-        <v>1635.885026789086</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O16" t="n">
-        <v>2173.32015736263</v>
+        <v>2005.127382498297</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T16" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V16" t="n">
-        <v>1831.124845221573</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W16" t="n">
-        <v>1559.098440807865</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X16" t="n">
-        <v>1313.706686141277</v>
+        <v>1338.968419111735</v>
       </c>
       <c r="Y16" t="n">
-        <v>1284.110459942618</v>
+        <v>1111.548748425843</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1782.900983623584</v>
+        <v>1233.361929063011</v>
       </c>
       <c r="C17" t="n">
-        <v>1344.758510807007</v>
+        <v>1233.361929063011</v>
       </c>
       <c r="D17" t="n">
-        <v>908.8487259814518</v>
+        <v>1233.361929063011</v>
       </c>
       <c r="E17" t="n">
-        <v>475.073981139747</v>
+        <v>799.5871842213064</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895472</v>
+        <v>371.7197546305142</v>
       </c>
       <c r="G17" t="n">
         <v>47.20655154895472</v>
@@ -5521,7 +5521,7 @@
         <v>512.3249274228015</v>
       </c>
       <c r="L17" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M17" t="n">
         <v>1131.588690455489</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447736</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447736</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="W17" t="n">
-        <v>2360.327577447736</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="X17" t="n">
-        <v>1941.185114027047</v>
+        <v>1641.648052763358</v>
       </c>
       <c r="Y17" t="n">
-        <v>1782.900983623584</v>
+        <v>1233.361929063011</v>
       </c>
     </row>
     <row r="18">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>471.6552262893761</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C19" t="n">
-        <v>299.0935147726011</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D19" t="n">
-        <v>133.2155219741237</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E19" t="n">
-        <v>47.20655154895472</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F19" t="n">
         <v>47.20655154895472</v>
@@ -5673,19 +5673,19 @@
         <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L19" t="n">
-        <v>1106.33113894078</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M19" t="n">
-        <v>1236.93553127931</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N19" t="n">
-        <v>1364.434443083199</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O19" t="n">
         <v>1657.620488527956</v>
@@ -5706,19 +5706,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1695.267182904121</v>
+        <v>1955.723270266458</v>
       </c>
       <c r="V19" t="n">
-        <v>1408.311674774551</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W19" t="n">
-        <v>1136.285270360843</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X19" t="n">
-        <v>890.893515694255</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y19" t="n">
-        <v>663.4738450083632</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>913.2164539563237</v>
+        <v>1470.343171017674</v>
       </c>
       <c r="C20" t="n">
-        <v>475.073981139747</v>
+        <v>1032.200698201097</v>
       </c>
       <c r="D20" t="n">
-        <v>475.073981139747</v>
+        <v>1032.200698201097</v>
       </c>
       <c r="E20" t="n">
-        <v>475.073981139747</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895472</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435807</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K20" t="n">
         <v>512.3249274228017</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
         <v>2043.069798152528</v>
@@ -5776,28 +5776,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447736</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447736</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447736</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="W20" t="n">
-        <v>2166.944611562267</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="X20" t="n">
-        <v>1747.802148141578</v>
+        <v>1470.343171017674</v>
       </c>
       <c r="Y20" t="n">
-        <v>1339.516024441231</v>
+        <v>1470.343171017674</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
         <v>341.0245550495863</v>
@@ -5822,19 +5822,19 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J21" t="n">
         <v>175.3166270668981</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L21" t="n">
         <v>551.5786779960906</v>
@@ -5889,52 +5889,52 @@
         <v>471.6552262893761</v>
       </c>
       <c r="C22" t="n">
-        <v>407.3870791208724</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="D22" t="n">
-        <v>407.3870791208724</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E22" t="n">
-        <v>407.3870791208724</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F22" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>481.9462364092376</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M22" t="n">
-        <v>1066.127311827552</v>
+        <v>910.9641928553087</v>
       </c>
       <c r="N22" t="n">
-        <v>1635.885026789086</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.320157362629</v>
+        <v>2018.157038390386</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540313</v>
+        <v>2118.926094568069</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
         <v>2215.901038951971</v>
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2360.327577447736</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="C23" t="n">
-        <v>1922.185104631159</v>
+        <v>1260.031093301297</v>
       </c>
       <c r="D23" t="n">
-        <v>1486.275319805604</v>
+        <v>824.1213084757419</v>
       </c>
       <c r="E23" t="n">
-        <v>1052.500574963899</v>
+        <v>824.1213084757419</v>
       </c>
       <c r="F23" t="n">
-        <v>624.6331453731068</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G23" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867021</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P23" t="n">
         <v>2043.069798152528</v>
@@ -6013,28 +6013,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R23" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447736</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447736</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W23" t="n">
-        <v>2360.327577447736</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="X23" t="n">
-        <v>2360.327577447736</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="Y23" t="n">
-        <v>2360.327577447736</v>
+        <v>1698.173566117874</v>
       </c>
     </row>
     <row r="24">
@@ -6062,7 +6062,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
         <v>81.42328772043084</v>
@@ -6086,7 +6086,7 @@
         <v>1298.314267034638</v>
       </c>
       <c r="P24" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q24" t="n">
         <v>1614.947661807679</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>471.6552262893761</v>
+        <v>528.8193777246577</v>
       </c>
       <c r="C25" t="n">
-        <v>471.6552262893761</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="D25" t="n">
-        <v>471.6552262893761</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="E25" t="n">
-        <v>471.6552262893761</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F25" t="n">
-        <v>407.3870791208724</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G25" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H25" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
         <v>106.1122152511378</v>
@@ -6153,46 +6153,46 @@
         <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>588.0160255186809</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M25" t="n">
-        <v>718.6204178572102</v>
+        <v>910.9641928553087</v>
       </c>
       <c r="N25" t="n">
-        <v>1288.378132818744</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O25" t="n">
-        <v>1825.813263392288</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R25" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2215.901038951971</v>
+        <v>2273.065190387253</v>
       </c>
       <c r="T25" t="n">
-        <v>1973.653814855378</v>
+        <v>2030.817966290659</v>
       </c>
       <c r="U25" t="n">
-        <v>1695.267182904121</v>
+        <v>1752.431334339402</v>
       </c>
       <c r="V25" t="n">
-        <v>1408.311674774551</v>
+        <v>1465.475826209833</v>
       </c>
       <c r="W25" t="n">
-        <v>1136.285270360843</v>
+        <v>1193.449421796124</v>
       </c>
       <c r="X25" t="n">
-        <v>890.893515694255</v>
+        <v>948.0576671295366</v>
       </c>
       <c r="Y25" t="n">
-        <v>663.4738450083632</v>
+        <v>720.6379964436449</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2013.98275358362</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C26" t="n">
-        <v>2013.98275358362</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D26" t="n">
-        <v>1578.072968758064</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E26" t="n">
-        <v>1144.298223916359</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F26" t="n">
         <v>716.4307943255671</v>
@@ -6223,16 +6223,16 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001349</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435801</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K26" t="n">
-        <v>512.324927422801</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867016</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M26" t="n">
         <v>1131.588690455489</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S26" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T26" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U26" t="n">
-        <v>2013.98275358362</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V26" t="n">
-        <v>2013.98275358362</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="W26" t="n">
-        <v>2013.98275358362</v>
+        <v>1592.855172792596</v>
       </c>
       <c r="X26" t="n">
-        <v>2013.98275358362</v>
+        <v>1173.712709371906</v>
       </c>
       <c r="Y26" t="n">
-        <v>2013.98275358362</v>
+        <v>765.4265856715598</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D27" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H27" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I27" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J27" t="n">
-        <v>858.9930882810424</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L27" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M27" t="n">
-        <v>1487.064164512932</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N27" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O27" t="n">
-        <v>1981.990728248782</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P27" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q27" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R27" t="n">
-        <v>2360.327577447736</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S27" t="n">
-        <v>2315.70654684747</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T27" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U27" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V27" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W27" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X27" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y27" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="28">
@@ -6363,19 +6363,19 @@
         <v>616.0817647851411</v>
       </c>
       <c r="C28" t="n">
-        <v>616.0817647851411</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D28" t="n">
-        <v>616.0817647851411</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E28" t="n">
-        <v>446.3237610358784</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F28" t="n">
-        <v>269.6167069976345</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G28" t="n">
-        <v>104.8755266101529</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H28" t="n">
         <v>47.20655154895472</v>
@@ -6387,19 +6387,19 @@
         <v>106.1122152511378</v>
       </c>
       <c r="K28" t="n">
-        <v>202.912315818696</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L28" t="n">
-        <v>744.9929992049549</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M28" t="n">
-        <v>875.5973915434844</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N28" t="n">
-        <v>1445.355106505019</v>
+        <v>1708.047382044526</v>
       </c>
       <c r="O28" t="n">
-        <v>1982.790237078562</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P28" t="n">
         <v>2274.089213540313</v>
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>446.7092428694776</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C29" t="n">
-        <v>446.7092428694776</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D29" t="n">
-        <v>446.7092428694776</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E29" t="n">
-        <v>446.7092428694776</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F29" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J29" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O29" t="n">
         <v>1775.969506973259</v>
@@ -6487,28 +6487,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R29" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S29" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T29" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U29" t="n">
-        <v>2060.790516184048</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="V29" t="n">
-        <v>1698.173566117874</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="W29" t="n">
-        <v>1293.318111528907</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="X29" t="n">
-        <v>874.1756481082181</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="Y29" t="n">
-        <v>465.8895244078715</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="30">
@@ -6533,34 +6533,34 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>79.14920158235849</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I30" t="n">
         <v>81.42328772043084</v>
       </c>
       <c r="J30" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K30" t="n">
-        <v>335.7952991210685</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L30" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M30" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O30" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P30" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q30" t="n">
         <v>1614.947661807679</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>888.10816919885</v>
+        <v>717.0469809559636</v>
       </c>
       <c r="C31" t="n">
-        <v>715.5464576820749</v>
+        <v>544.4852694391885</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6684648835976</v>
+        <v>544.4852694391885</v>
       </c>
       <c r="E31" t="n">
-        <v>379.9104611343349</v>
+        <v>544.4852694391885</v>
       </c>
       <c r="F31" t="n">
-        <v>203.2034070960911</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G31" t="n">
-        <v>203.2034070960911</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H31" t="n">
-        <v>70.85934647540697</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J31" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K31" t="n">
-        <v>477.6707703898316</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>1019.751453776091</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M31" t="n">
-        <v>1150.35584611462</v>
+        <v>875.5973915434844</v>
       </c>
       <c r="N31" t="n">
-        <v>1277.854757918509</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O31" t="n">
-        <v>1815.289888492053</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P31" t="n">
-        <v>2263.565838640078</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R31" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T31" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V31" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W31" t="n">
-        <v>1552.738213270316</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X31" t="n">
-        <v>1307.346458603729</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="Y31" t="n">
-        <v>1079.926787917837</v>
+        <v>908.8655996749508</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1782.900983623584</v>
+        <v>1066.133050056591</v>
       </c>
       <c r="C32" t="n">
-        <v>1344.758510807007</v>
+        <v>1066.133050056591</v>
       </c>
       <c r="D32" t="n">
         <v>908.8487259814518</v>
@@ -6688,64 +6688,64 @@
         <v>475.073981139747</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001348</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435801</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K32" t="n">
-        <v>512.324927422801</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867016</v>
+        <v>805.440802286703</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431968</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q32" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R32" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T32" t="n">
-        <v>2187.756438212551</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="U32" t="n">
-        <v>2187.756438212551</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="V32" t="n">
-        <v>2187.756438212551</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="W32" t="n">
-        <v>1782.900983623584</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="X32" t="n">
-        <v>1782.900983623584</v>
+        <v>1900.718744241845</v>
       </c>
       <c r="Y32" t="n">
-        <v>1782.900983623584</v>
+        <v>1492.432620541499</v>
       </c>
     </row>
     <row r="33">
@@ -6758,7 +6758,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D33" t="n">
         <v>341.0245550495863</v>
@@ -6770,25 +6770,25 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J33" t="n">
         <v>175.3166270668981</v>
       </c>
       <c r="K33" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L33" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960907</v>
       </c>
       <c r="M33" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987881</v>
       </c>
       <c r="N33" t="n">
         <v>1061.861364220108</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>616.0817647851411</v>
+        <v>750.0418582406339</v>
       </c>
       <c r="C34" t="n">
-        <v>616.0817647851411</v>
+        <v>577.4801467238589</v>
       </c>
       <c r="D34" t="n">
-        <v>450.2037719866638</v>
+        <v>577.4801467238589</v>
       </c>
       <c r="E34" t="n">
-        <v>280.4457682374011</v>
+        <v>407.7221429745961</v>
       </c>
       <c r="F34" t="n">
-        <v>211.9477319364363</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895472</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J34" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K34" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L34" t="n">
-        <v>326.7831174369939</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M34" t="n">
-        <v>897.9345369632204</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N34" t="n">
-        <v>1467.692251924754</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O34" t="n">
-        <v>2005.127382498297</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q34" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R34" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T34" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U34" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V34" t="n">
-        <v>1552.738213270316</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W34" t="n">
-        <v>1280.711808856608</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X34" t="n">
-        <v>1035.32005419002</v>
+        <v>1169.280147645513</v>
       </c>
       <c r="Y34" t="n">
-        <v>807.9003835041283</v>
+        <v>941.8604769596211</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1900.718744241844</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C35" t="n">
-        <v>1462.576271425267</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D35" t="n">
-        <v>1026.666486599712</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E35" t="n">
-        <v>592.8917417580069</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F35" t="n">
-        <v>165.0243121672146</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
         <v>118.4065018001351</v>
       </c>
       <c r="J35" t="n">
-        <v>276.05327704358</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228009</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867016</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
@@ -6961,28 +6961,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2319.861207662533</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>2319.861207662533</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V35" t="n">
-        <v>2319.861207662533</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W35" t="n">
-        <v>2319.861207662533</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X35" t="n">
-        <v>1900.718744241844</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="Y35" t="n">
-        <v>1900.718744241844</v>
+        <v>2108.089956131646</v>
       </c>
     </row>
     <row r="36">
@@ -7010,16 +7010,16 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J36" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
         <v>551.5786779960906</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>616.0817647851411</v>
+        <v>750.041858240633</v>
       </c>
       <c r="C37" t="n">
-        <v>616.0817647851411</v>
+        <v>686.8768393938415</v>
       </c>
       <c r="D37" t="n">
-        <v>450.2037719866638</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="E37" t="n">
-        <v>280.4457682374011</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F37" t="n">
-        <v>179.5506121696388</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G37" t="n">
         <v>179.5506121696388</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L37" t="n">
-        <v>1106.33113894078</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M37" t="n">
-        <v>1236.93553127931</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N37" t="n">
-        <v>1364.434443083199</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527956</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675981</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T37" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V37" t="n">
-        <v>1552.738213270316</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W37" t="n">
-        <v>1280.711808856608</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X37" t="n">
-        <v>1035.32005419002</v>
+        <v>1169.280147645512</v>
       </c>
       <c r="Y37" t="n">
-        <v>807.9003835041283</v>
+        <v>941.8604769596202</v>
       </c>
     </row>
     <row r="38">
@@ -7162,64 +7162,64 @@
         <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I38" t="n">
         <v>118.4065018001357</v>
       </c>
       <c r="J38" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286703</v>
       </c>
       <c r="M38" t="n">
         <v>1131.58869045549</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431968</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T38" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="U38" t="n">
-        <v>1849.01926465316</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="V38" t="n">
-        <v>1782.900983623584</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="W38" t="n">
-        <v>1782.900983623584</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="X38" t="n">
-        <v>1782.900983623584</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="Y38" t="n">
-        <v>1782.900983623584</v>
+        <v>1911.575083962188</v>
       </c>
     </row>
     <row r="39">
@@ -7232,31 +7232,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E39" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G39" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J39" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
         <v>551.5786779960906</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>616.0817647851411</v>
+        <v>682.7314968723728</v>
       </c>
       <c r="C40" t="n">
-        <v>443.520053268366</v>
+        <v>510.1697853555977</v>
       </c>
       <c r="D40" t="n">
-        <v>356.2576662078826</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="E40" t="n">
-        <v>356.2576662078826</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F40" t="n">
-        <v>179.5506121696388</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G40" t="n">
         <v>179.5506121696388</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J40" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K40" t="n">
-        <v>289.4920009833859</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L40" t="n">
-        <v>413.3628026016838</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M40" t="n">
-        <v>997.5438780199984</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N40" t="n">
-        <v>1567.301592981533</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O40" t="n">
-        <v>2104.736723555076</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P40" t="n">
-        <v>2205.505779732759</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q40" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T40" t="n">
-        <v>2118.080353351143</v>
+        <v>2118.080353351144</v>
       </c>
       <c r="U40" t="n">
-        <v>1839.693721399886</v>
+        <v>1839.693721399887</v>
       </c>
       <c r="V40" t="n">
-        <v>1552.738213270316</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W40" t="n">
-        <v>1280.711808856608</v>
+        <v>1347.361540943839</v>
       </c>
       <c r="X40" t="n">
-        <v>1035.32005419002</v>
+        <v>1101.969786277252</v>
       </c>
       <c r="Y40" t="n">
-        <v>807.9003835041283</v>
+        <v>874.5501155913598</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1955.472122858769</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C41" t="n">
-        <v>1517.329650042193</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D41" t="n">
-        <v>1081.419865216637</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E41" t="n">
-        <v>647.6451203749323</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F41" t="n">
-        <v>219.77769078414</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L41" t="n">
         <v>805.440802286702</v>
@@ -7435,28 +7435,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U41" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V41" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W41" t="n">
-        <v>1955.472122858769</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X41" t="n">
-        <v>1955.472122858769</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y41" t="n">
-        <v>1955.472122858769</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>542.5713050663908</v>
+        <v>542.571305066391</v>
       </c>
       <c r="C42" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030333</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495865</v>
       </c>
       <c r="E42" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765402</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927018</v>
       </c>
       <c r="G42" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J42" t="n">
         <v>175.316627066898</v>
@@ -7496,10 +7496,10 @@
         <v>335.7952991210681</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M42" t="n">
-        <v>803.3877032987878</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
@@ -7529,13 +7529,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>945.2284211280532</v>
+        <v>945.2284211280535</v>
       </c>
       <c r="X42" t="n">
-        <v>790.3609853669332</v>
+        <v>790.3609853669334</v>
       </c>
       <c r="Y42" t="n">
-        <v>663.8752061461539</v>
+        <v>663.8752061461541</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>852.4895006216354</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C43" t="n">
-        <v>679.9277891048604</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D43" t="n">
-        <v>514.0497963063831</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E43" t="n">
-        <v>344.2917925571204</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F43" t="n">
-        <v>344.2917925571204</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G43" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J43" t="n">
         <v>192.6919004158277</v>
@@ -7578,10 +7578,10 @@
         <v>1106.33113894078</v>
       </c>
       <c r="M43" t="n">
-        <v>1412.355695376305</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N43" t="n">
-        <v>1539.854607180194</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O43" t="n">
         <v>1657.620488527956</v>
@@ -7593,28 +7593,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T43" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W43" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X43" t="n">
-        <v>1136.285270360843</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.8655996749508</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="44">
@@ -7636,64 +7636,64 @@
         <v>475.073981139747</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
         <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N44" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V44" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W44" t="n">
-        <v>2202.043447044273</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X44" t="n">
-        <v>1782.900983623584</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y44" t="n">
-        <v>1782.900983623584</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>1119.791305117177</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E45" t="n">
-        <v>930.5806015906844</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F45" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G45" t="n">
-        <v>762.8256627965029</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I45" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J45" t="n">
-        <v>858.9930882810423</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N45" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1981.990728248782</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P45" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q45" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R45" t="n">
-        <v>2360.327577447736</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S45" t="n">
-        <v>2315.70654684747</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T45" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U45" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V45" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W45" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X45" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y45" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>471.6552262893761</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C46" t="n">
-        <v>471.6552262893761</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D46" t="n">
-        <v>305.7772334908988</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="E46" t="n">
-        <v>179.5506121696388</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F46" t="n">
-        <v>179.5506121696388</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G46" t="n">
-        <v>179.5506121696388</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>289.4920009833859</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>413.3628026016838</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M46" t="n">
-        <v>897.93453696322</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N46" t="n">
-        <v>1467.692251924754</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O46" t="n">
-        <v>2005.127382498297</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W46" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X46" t="n">
-        <v>890.893515694255</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y46" t="n">
-        <v>663.4738450083632</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
   </sheetData>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>32.63681545384325</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>6.309872867522088</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>106.4970253946651</v>
+        <v>106.4970253946639</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8619,19 +8619,19 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>15.66495213582283</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>4.59114468577873</v>
       </c>
       <c r="O10" t="n">
-        <v>95.06085321698922</v>
+        <v>95.06085321698824</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>98.52803488912366</v>
       </c>
       <c r="Q10" t="n">
-        <v>104.8520877340671</v>
+        <v>104.8520877340659</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371567</v>
+        <v>458.1582657371566</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>141.4680432173434</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>156.7304232042864</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>69.27619576520613</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>458.1582657371569</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>70.05088382580925</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -9336,7 +9336,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>177.1920849464593</v>
+        <v>264.6463123855401</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
@@ -9564,7 +9564,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>156.7304232042866</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>458.1582657371569</v>
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>156.7304232042866</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9801,13 +9801,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>263.8716243249363</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>82.54773060122693</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
@@ -9816,7 +9816,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
@@ -10044,13 +10044,13 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>434.5380041676935</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>192.4544649334016</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10272,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -10281,16 +10281,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>265.3457328681893</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>10.62967161639948</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,25 +10506,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>444.99699715929</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464607</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821538</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10758,13 +10758,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>177.1920849464593</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>10.62967161639926</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10983,25 +10983,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464607</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.27619576520601</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11226,13 +11226,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>177.1920849464593</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11457,22 +11457,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>357.542769720209</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -23032,10 +23032,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>304.5048447524215</v>
+        <v>304.5048447524228</v>
       </c>
       <c r="G8" t="n">
-        <v>277.921046109753</v>
+        <v>397.0049566522158</v>
       </c>
       <c r="H8" t="n">
         <v>282.3584801445919</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.1812531179676</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.2079358176206</v>
+        <v>97.12402527515901</v>
       </c>
       <c r="U8" t="n">
         <v>256.599767943293</v>
       </c>
       <c r="V8" t="n">
-        <v>254.1016721597105</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>295.8671282440196</v>
+        <v>384.24318349865</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>285.1193519208816</v>
       </c>
     </row>
     <row r="9">
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>120.0908620689655</v>
+        <v>1.006951526503983</v>
       </c>
       <c r="C9" t="n">
         <v>105.3918965517241</v>
@@ -23114,10 +23114,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>84.32851138425291</v>
+        <v>1.960802102560876</v>
       </c>
       <c r="H9" t="n">
-        <v>39.36037526809188</v>
+        <v>39.3603752680919</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,22 +23150,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656958</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>128.0597233353587</v>
+        <v>8.975812792897145</v>
       </c>
       <c r="U9" t="n">
-        <v>55.47593365518534</v>
+        <v>174.5598441976481</v>
       </c>
       <c r="V9" t="n">
-        <v>78.04243221615783</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
-        <v>64.38561618167512</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
-        <v>130.9796529977075</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -23178,13 +23178,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>70.81652198933443</v>
+        <v>98.57295270216116</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>45.13530232803099</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -23196,10 +23196,10 @@
         <v>163.7654023385416</v>
       </c>
       <c r="H10" t="n">
-        <v>136.9920546719889</v>
+        <v>17.90814412952737</v>
       </c>
       <c r="I10" t="n">
-        <v>82.66219243742782</v>
+        <v>82.66219243742788</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,25 +23229,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>154.6870177308996</v>
+        <v>154.6870177308997</v>
       </c>
       <c r="T10" t="n">
         <v>242.6944597176218</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6394002001954</v>
+        <v>156.5554896577339</v>
       </c>
       <c r="V10" t="n">
-        <v>192.7584732186366</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>123.8539265774589</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>106.06156343657</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,16 +23266,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>405.2139376758925</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735101</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>103.9758292559056</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>124.8976889277174</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>62.46433369811444</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>256.7260822018291</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>85.1079384063529</v>
       </c>
       <c r="G14" t="n">
-        <v>57.92552441760196</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>40.06170608735101</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>167.9913887515609</v>
       </c>
       <c r="Y16" t="n">
-        <v>195.8452100423609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,10 +23734,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>74.23959335657378</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>247.5019733639147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>82.91154299085279</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.0937685836068</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>257.8515264887142</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,13 +23977,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>273.3892119098688</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>209.3577638164629</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>107.2106287047886</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>87.01543208710686</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24214,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>49.95081034468268</v>
       </c>
       <c r="G23" t="n">
-        <v>90.87967246293573</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -24375,16 +24375,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>111.3145178010427</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>56.59250992092878</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>373.530741347526</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>163.3138540411557</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>114.8692533779068</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>73.928334703891</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
         <v>62.46433369811444</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>403.0480960570487</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>52.95224991615055</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>39.21277508272837</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>39.04806672092671</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>275.8392061429122</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>38.8081111727453</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
         <v>256.4799845637012</v>
@@ -24979,13 +24979,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>107.1269275599062</v>
+        <v>112.1439365845604</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>100.0994919970772</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>278.8680813952403</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
@@ -25219,7 +25219,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>108.3027257432837</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>75.05377899077673</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>294.6492154448408</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>293.5336823462318</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -25459,7 +25459,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>77.82944968061393</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>65.98323476635795</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>224.6622365644842</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
@@ -25690,13 +25690,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>294.6492154448417</v>
       </c>
     </row>
     <row r="42">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>134.0880944690151</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>114.8692533779064</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735101</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>209.6535390155789</v>
@@ -25927,13 +25927,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>244.1056109436489</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>294.6492154448413</v>
       </c>
     </row>
     <row r="45">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>9.273163364250252</v>
       </c>
       <c r="E46" t="n">
-        <v>43.0960686037228</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>91344.9677980422</v>
+        <v>91344.96779804122</v>
       </c>
     </row>
     <row r="5">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>405722.3221684651</v>
+        <v>405722.3221684652</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>405722.3221684652</v>
+        <v>405722.3221684651</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>405722.3221684651</v>
+        <v>405722.3221684653</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>405722.3221684651</v>
+        <v>405722.3221684652</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>405722.3221684651</v>
+        <v>405722.3221684653</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>405722.3221684651</v>
+        <v>405722.3221684652</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>405722.3221684651</v>
+        <v>405722.3221684652</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>34693.90071497291</v>
+        <v>34693.90071497254</v>
       </c>
       <c r="E2" t="n">
         <v>157297.5713008173</v>
@@ -26328,19 +26328,19 @@
         <v>157297.5713008173</v>
       </c>
       <c r="G2" t="n">
+        <v>157297.5713008173</v>
+      </c>
+      <c r="H2" t="n">
+        <v>157297.5713008173</v>
+      </c>
+      <c r="I2" t="n">
         <v>157297.5713008174</v>
-      </c>
-      <c r="H2" t="n">
-        <v>157297.5713008174</v>
-      </c>
-      <c r="I2" t="n">
-        <v>157297.5713008173</v>
       </c>
       <c r="J2" t="n">
         <v>157297.5713008173</v>
       </c>
       <c r="K2" t="n">
-        <v>157297.5713008174</v>
+        <v>157297.5713008173</v>
       </c>
       <c r="L2" t="n">
         <v>157297.5713008174</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.4675730598</v>
+        <v>117708.4675730585</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.2450180422</v>
+        <v>439858.2450180433</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310243</v>
+        <v>30139.06600310222</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.5815597475</v>
+        <v>117374.5815597477</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4713.479804066991</v>
+        <v>4713.479804066939</v>
       </c>
       <c r="E4" t="n">
         <v>12946.1632919156</v>
@@ -26438,28 +26438,28 @@
         <v>12946.16329191559</v>
       </c>
       <c r="I4" t="n">
-        <v>12946.16329191559</v>
+        <v>12946.1632919156</v>
       </c>
       <c r="J4" t="n">
         <v>12946.16329191559</v>
       </c>
       <c r="K4" t="n">
-        <v>12946.1632919156</v>
+        <v>12946.16329191559</v>
       </c>
       <c r="L4" t="n">
-        <v>12946.16329191559</v>
+        <v>12946.16329191561</v>
       </c>
       <c r="M4" t="n">
         <v>12946.16329191559</v>
       </c>
       <c r="N4" t="n">
-        <v>12946.16329191559</v>
+        <v>12946.16329191561</v>
       </c>
       <c r="O4" t="n">
-        <v>12946.16329191559</v>
+        <v>12946.1632919156</v>
       </c>
       <c r="P4" t="n">
-        <v>12946.16329191559</v>
+        <v>12946.1632919156</v>
       </c>
     </row>
     <row r="5">
@@ -26475,10 +26475,10 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.56227239251</v>
+        <v>42922.56227239241</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963779</v>
       </c>
       <c r="F5" t="n">
         <v>46051.0812096378</v>
@@ -26499,19 +26499,19 @@
         <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="M5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="O5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963782</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-130650.6089345464</v>
+        <v>-131817.5077306964</v>
       </c>
       <c r="E6" t="n">
-        <v>-341557.9182187783</v>
+        <v>-342111.7986620014</v>
       </c>
       <c r="F6" t="n">
-        <v>98300.32679926389</v>
+        <v>97746.44635604195</v>
       </c>
       <c r="G6" t="n">
-        <v>98300.32679926403</v>
+        <v>97746.44635604201</v>
       </c>
       <c r="H6" t="n">
-        <v>98300.32679926397</v>
+        <v>97746.44635604201</v>
       </c>
       <c r="I6" t="n">
-        <v>98300.32679926394</v>
+        <v>97746.44635604201</v>
       </c>
       <c r="J6" t="n">
-        <v>98300.32679926394</v>
+        <v>97746.44635604201</v>
       </c>
       <c r="K6" t="n">
-        <v>98300.326799264</v>
+        <v>97746.44635604201</v>
       </c>
       <c r="L6" t="n">
-        <v>68161.26079616156</v>
+        <v>67607.38035293978</v>
       </c>
       <c r="M6" t="n">
-        <v>-19074.25476048351</v>
+        <v>-19628.1352037057</v>
       </c>
       <c r="N6" t="n">
-        <v>98300.326799264</v>
+        <v>97746.44635604207</v>
       </c>
       <c r="O6" t="n">
-        <v>98300.326799264</v>
+        <v>97746.44635604207</v>
       </c>
       <c r="P6" t="n">
-        <v>98300.32679926397</v>
+        <v>97746.44635604203</v>
       </c>
     </row>
   </sheetData>
@@ -26743,10 +26743,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480624</v>
+        <v>94.25048217480524</v>
       </c>
       <c r="E3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932209</v>
       </c>
       <c r="F3" t="n">
         <v>466.701928093221</v>
@@ -26767,19 +26767,19 @@
         <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932212</v>
       </c>
     </row>
     <row r="4">
@@ -26795,10 +26795,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424628</v>
+        <v>119.0839105424615</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619339</v>
+        <v>590.0818943619338</v>
       </c>
       <c r="F4" t="n">
         <v>590.081894361934</v>
@@ -26807,31 +26807,31 @@
         <v>590.081894361934</v>
       </c>
       <c r="H4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
         <v>590.081894361934</v>
       </c>
       <c r="K4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="L4" t="n">
+        <v>590.0818943619344</v>
+      </c>
+      <c r="M4" t="n">
         <v>590.0818943619341</v>
       </c>
-      <c r="L4" t="n">
-        <v>590.081894361934</v>
-      </c>
-      <c r="M4" t="n">
-        <v>590.081894361934</v>
-      </c>
       <c r="N4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="O4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="P4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480625</v>
+        <v>94.25048217480524</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184148</v>
+        <v>372.4514459184157</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424628</v>
+        <v>119.0839105424615</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194711</v>
+        <v>470.9979838194723</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424627</v>
+        <v>119.0839105424619</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194711</v>
+        <v>470.997983819472</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424628</v>
+        <v>119.0839105424615</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194711</v>
+        <v>470.9979838194723</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529896</v>
+        <v>0.3788964107529856</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866624056</v>
+        <v>3.880372866624015</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555465</v>
+        <v>14.60740387555449</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214658</v>
+        <v>32.15835924214624</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430932064</v>
+        <v>48.19704430932013</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990246</v>
+        <v>59.79269533990183</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438463094</v>
+        <v>66.53089438463023</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168287</v>
+        <v>67.60743381168216</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725783</v>
+        <v>63.83978262725715</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679339</v>
+        <v>54.48577748679281</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670193</v>
+        <v>40.9165497767015</v>
       </c>
       <c r="R8" t="n">
-        <v>23.8008516619625</v>
+        <v>23.80085166196225</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033759</v>
+        <v>8.634101960033668</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071213</v>
+        <v>1.658619038071195</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023916</v>
+        <v>0.03031171286023884</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2027274522250549</v>
+        <v>0.2027274522250528</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857768</v>
+        <v>1.957920393857747</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888954</v>
+        <v>6.97987061388888</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780662</v>
+        <v>19.15329845780641</v>
       </c>
       <c r="K9" t="n">
-        <v>32.7360377568853</v>
+        <v>32.73603775688495</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211116</v>
+        <v>44.0176426421107</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526939</v>
+        <v>51.36651278526885</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286637</v>
+        <v>52.72603153286582</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619541</v>
+        <v>48.23401798619491</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006334</v>
+        <v>38.71205182006293</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542982</v>
+        <v>25.87798144542955</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779771</v>
+        <v>12.58688514779758</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531171</v>
+        <v>3.765573509531131</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457255</v>
+        <v>0.8171338973457168</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0133373323832273</v>
+        <v>0.01333733238322716</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889948</v>
+        <v>0.1699598858889931</v>
       </c>
       <c r="H10" t="n">
-        <v>1.511097894540337</v>
+        <v>1.511097894540321</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643592</v>
+        <v>5.111157295643538</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235193</v>
+        <v>12.01616393235181</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055776</v>
+        <v>19.74624856055755</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207838</v>
+        <v>25.26839976207811</v>
       </c>
       <c r="M10" t="n">
-        <v>26.6419846580358</v>
+        <v>26.64198465803551</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063138</v>
+        <v>26.00849781063111</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547357</v>
+        <v>24.02305732547332</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333806</v>
+        <v>20.55587565333784</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839574</v>
+        <v>14.23182280839559</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517893</v>
+        <v>7.642014505517812</v>
       </c>
       <c r="S10" t="n">
-        <v>2.961937284083664</v>
+        <v>2.961937284083632</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075232</v>
+        <v>0.7261922397075156</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00927053923030882</v>
+        <v>0.009270539230308721</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,10 +31755,10 @@
         <v>1.876188655651138</v>
       </c>
       <c r="H11" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968722</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699057</v>
       </c>
       <c r="J11" t="n">
         <v>159.2391669125709</v>
@@ -31767,16 +31767,16 @@
         <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766672</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N11" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O11" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
         <v>269.7982739184534</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879932</v>
+        <v>9.69507212887993</v>
       </c>
       <c r="I12" t="n">
         <v>34.56235976916778</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562334</v>
       </c>
       <c r="K12" t="n">
         <v>162.099668741586</v>
@@ -31852,7 +31852,7 @@
         <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742732</v>
@@ -31864,7 +31864,7 @@
         <v>128.1404992002368</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233621</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
@@ -31873,7 +31873,7 @@
         <v>4.04621765960066</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356903</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238409</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051973</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495697</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624555</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116987</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366645</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
@@ -32484,7 +32484,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
         <v>316.116681354841</v>
@@ -32493,19 +32493,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,25 +32548,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
@@ -32575,7 +32575,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
@@ -32584,7 +32584,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
         <v>97.77787936116989</v>
@@ -32642,16 +32642,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
         <v>37.84111043195198</v>
@@ -32663,7 +32663,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32806,10 +32806,10 @@
         <v>238.8413159742732</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002372</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
         <v>62.32672164233622</v>
@@ -33025,7 +33025,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562348</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
         <v>162.099668741586</v>
@@ -33037,7 +33037,7 @@
         <v>254.3525508108054</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742732</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H29" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
@@ -33195,7 +33195,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O29" t="n">
         <v>316.116681354841</v>
@@ -33204,19 +33204,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T29" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,34 +33259,34 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N30" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P30" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
@@ -33295,7 +33295,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K31" t="n">
         <v>97.77787936116989</v>
@@ -33353,16 +33353,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R31" t="n">
         <v>37.84111043195198</v>
@@ -33374,7 +33374,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H32" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U32" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,46 +33493,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33590,28 +33590,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R34" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U35" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562353</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33827,28 +33827,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R37" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U38" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562353</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34064,28 +34064,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R40" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742736</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34301,28 +34301,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H44" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917236</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642325</v>
+        <v>14.1947823964231</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214656</v>
+        <v>32.15835924214624</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430932063</v>
+        <v>48.19704430932012</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990245</v>
+        <v>59.79269533990183</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438463095</v>
+        <v>66.53089438463024</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168288</v>
+        <v>67.60743381168217</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725782</v>
+        <v>63.83978262725714</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679338</v>
+        <v>54.48577748679281</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670191</v>
+        <v>40.91654977670152</v>
       </c>
       <c r="R8" t="n">
-        <v>23.8008516619625</v>
+        <v>23.80085166196227</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888954</v>
+        <v>33.30681320020968</v>
       </c>
       <c r="J9" t="n">
-        <v>51.79011391164987</v>
+        <v>19.15329845780641</v>
       </c>
       <c r="K9" t="n">
-        <v>32.7360377568853</v>
+        <v>39.04591062440704</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211116</v>
+        <v>44.0176426421107</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526938</v>
+        <v>51.36651278526884</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286639</v>
+        <v>52.72603153286582</v>
       </c>
       <c r="O9" t="n">
-        <v>48.2340179861954</v>
+        <v>48.23401798619491</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006332</v>
+        <v>38.71205182006292</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542984</v>
+        <v>25.87798144542955</v>
       </c>
       <c r="R9" t="n">
-        <v>119.0839105424628</v>
+        <v>119.0839105424615</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>99.4703913714326</v>
+        <v>12.01616393235181</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055776</v>
+        <v>19.74624856055755</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207839</v>
+        <v>25.26839976207812</v>
       </c>
       <c r="M10" t="n">
-        <v>42.30693679385863</v>
+        <v>26.64198465803551</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063138</v>
+        <v>30.59964249640984</v>
       </c>
       <c r="O10" t="n">
-        <v>119.0839105424628</v>
+        <v>119.0839105424615</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333803</v>
+        <v>119.0839105424615</v>
       </c>
       <c r="Q10" t="n">
-        <v>119.0839105424628</v>
+        <v>119.0839105424615</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785917</v>
       </c>
       <c r="J11" t="n">
         <v>159.2391669125709</v>
@@ -35418,22 +35418,22 @@
         <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548407</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>34.56235976916778</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562422</v>
+        <v>94.84175691562334</v>
       </c>
       <c r="K12" t="n">
         <v>162.099668741586</v>
@@ -35509,7 +35509,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002376</v>
       </c>
       <c r="R12" t="n">
         <v>62.32672164233622</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624557</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619339</v>
+        <v>590.0818943619338</v>
       </c>
       <c r="N13" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561043</v>
+        <v>260.4234789221532</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320033</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>227.2024143463627</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027013</v>
@@ -35646,31 +35646,31 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
         <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548414</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
-        <v>167.054075126376</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
         <v>590.081894361934</v>
       </c>
       <c r="N16" t="n">
-        <v>575.512843395489</v>
+        <v>198.8376634256977</v>
       </c>
       <c r="O16" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P16" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207615</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027013</v>
@@ -35883,25 +35883,25 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548407</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35983,10 +35983,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002372</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233645</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K19" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247772</v>
@@ -36056,7 +36056,7 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>296.1475206512691</v>
+        <v>383.6017480903499</v>
       </c>
       <c r="P19" t="n">
         <v>452.8039900485103</v>
@@ -36117,22 +36117,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062835</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548409</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916797</v>
+        <v>34.56235976916793</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>281.8524450409511</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N22" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>227.2024143463632</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062836</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766678</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562336</v>
@@ -36454,10 +36454,10 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002372</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
         <v>62.32672164233622</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
-        <v>388.9936461616009</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N25" t="n">
-        <v>575.5128433954891</v>
+        <v>211.3345102011153</v>
       </c>
       <c r="O25" t="n">
         <v>542.8637682561043</v>
@@ -36536,7 +36536,7 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027014</v>
@@ -36609,10 +36609,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916776</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562348</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
         <v>162.099668741586</v>
@@ -36685,19 +36685,19 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>59.50067040624556</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M28" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>575.5128433954891</v>
+        <v>563.3247837675819</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P28" t="n">
-        <v>294.2413903654051</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q28" t="n">
         <v>70.4719911420766</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
@@ -36843,13 +36843,13 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
         <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562351</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415862</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646688</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -36931,7 +36931,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R30" t="n">
         <v>62.32672164233622</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K31" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L31" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O31" t="n">
-        <v>542.8637682561043</v>
+        <v>384.3011685729991</v>
       </c>
       <c r="P31" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.10166275847587</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,19 +37065,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
@@ -37086,7 +37086,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916797</v>
+        <v>34.56235976916791</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K33" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
@@ -37159,10 +37159,10 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917232</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M34" t="n">
-        <v>576.9206257840672</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
-        <v>542.8637682561041</v>
+        <v>296.1475206512705</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,19 +37302,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125707</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562353</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M37" t="n">
         <v>131.9236286247772</v>
@@ -37478,16 +37478,16 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>296.1475206512691</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.36368292423</v>
+        <v>81.10166275847587</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,28 +37539,28 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994717</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548407</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37621,10 +37621,10 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562353</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
@@ -37703,28 +37703,28 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M40" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561043</v>
+        <v>296.1475206512705</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>139.7481869072822</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37794,7 +37794,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548407</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
         <v>269.7982739184536</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916793</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562325</v>
       </c>
       <c r="K42" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742736</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
@@ -37946,13 +37946,13 @@
         <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>309.1157135712365</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9554357048098</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P43" t="n">
         <v>452.8039900485103</v>
@@ -37961,7 +37961,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,25 +38013,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
         <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
         <v>269.7982739184536</v>
@@ -38040,7 +38040,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108055</v>
@@ -38110,16 +38110,16 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917236</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
-        <v>489.4663983449861</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561043</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
